--- a/Work/MS BRIBox/PM/2/KC Payakumbuh/FORM PM Unit Pasar Payakumbuh.xlsx
+++ b/Work/MS BRIBox/PM/2/KC Payakumbuh/FORM PM Unit Pasar Payakumbuh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jamil\Work\MS BRIBox\PM\2\KC Payakumbuh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFDD95B-7643-4F1C-9BFF-79D77EACB94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183A0525-DDEA-4CB1-ADC1-5A1E865814E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form PM'!$A$7:$W$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Form PM'!$A$1:$V$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Form PM'!$A$1:$V$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1478,7 +1478,7 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection sqref="A1:V58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7307,7 +7307,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
